--- a/data/Sandbox_maltigoal.xlsx
+++ b/data/Sandbox_maltigoal.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NW460\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48F9666-02E3-4453-A825-EA166D24CCA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5E4D40-3458-4B88-B227-63B4A63B32CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E1E3FFA-6A0B-43F3-B281-E60FFC0FFA6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0E1E3FFA-6A0B-43F3-B281-E60FFC0FFA6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId1"/>
+    <sheet name="Results" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$36:$I$38</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">model!$F$11:$F$29</definedName>
     <definedName name="solver_adj_ob" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_adj_ob1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_adj_ob2" localSheetId="0" hidden="1">1</definedName>
@@ -25,6 +26,7 @@
     <definedName name="solver_adj_ob5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_adj_ob6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_adj_ob7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_adj1" localSheetId="0" hidden="1">model!$F$37:$H$38</definedName>
     <definedName name="solver_cha" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_chc1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_chc10" localSheetId="0" hidden="1">0</definedName>
@@ -134,34 +136,34 @@
     <definedName name="solver_lhs_ob7" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob8" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob9" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$29</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs15" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs16" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$11:$F$14</definedName>
-    <definedName name="solver_lhs17" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="solver_lhs18" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="solver_lhs19" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$31</definedName>
-    <definedName name="solver_lhs20" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$20</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$11:$G$29</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$21</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$39:$I$39</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$36:$H$39</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Sheet1 (2)'!$I$36:$I$39</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Sheet1 (2)'!$G$30</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">model!$F$11:$F$29</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs16" localSheetId="0" hidden="1">model!$F$11:$F$14</definedName>
+    <definedName name="solver_lhs17" localSheetId="0" hidden="1">model!$B$20</definedName>
+    <definedName name="solver_lhs18" localSheetId="0" hidden="1">model!$B$20</definedName>
+    <definedName name="solver_lhs19" localSheetId="0" hidden="1">model!$B$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">model!$F$39:$H$39</definedName>
+    <definedName name="solver_lhs20" localSheetId="0" hidden="1">model!$B$20</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">model!$F$44:$I$45</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">model!$F$44:$I$45</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">model!$G$11:$G$29</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">model!$F$21</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">model!$I$36:$I$39</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">model!$G$30</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">model!$G$30</definedName>
     <definedName name="solver_mda" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_mod" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ntr" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ntri" hidden="1">1000</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_obc" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_obp" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$54</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">model!$F$54</definedName>
     <definedName name="solver_opt_ob" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_psi" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rdp" localSheetId="0" hidden="1">0</definedName>
@@ -196,28 +198,28 @@
     <definedName name="solver_rel17" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel18" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel19" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel20" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">5000</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Sheet1 (2)'!$J$11:$J$29</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Sheet1 (2)'!$B$6</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Sheet1 (2)'!$F$40:$I$40</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">model!$F$40:$H$40</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">model!$J$11:$J$29</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">model!$B$6</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">-200</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">11500</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">11500</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsmp" hidden="1">2</definedName>
     <definedName name="solver_rtr" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rxc1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rxc1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc11" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc12" localSheetId="0" hidden="1">1</definedName>
@@ -228,16 +230,17 @@
     <definedName name="solver_rxc17" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc18" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc19" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rxc2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rxc2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc20" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rxc3" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rxc4" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rxc3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rxc4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rxc7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rxc7" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rxc8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxc9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rxv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rxv1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_seed" hidden="1">0</definedName>
     <definedName name="solver_sel" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_slv" localSheetId="0" hidden="1">0</definedName>
@@ -250,10 +253,13 @@
     <definedName name="solver_userid" localSheetId="0" hidden="1">433243</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_var" localSheetId="0" hidden="1">" "</definedName>
+    <definedName name="solver_var1" localSheetId="0" hidden="1">" "</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">17</definedName>
     <definedName name="solver_vir" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_vir1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_vol" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_vst" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_vst1" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -270,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>Area</t>
   </si>
@@ -446,9 +452,6 @@
     </r>
   </si>
   <si>
-    <t>db+</t>
-  </si>
-  <si>
     <t>Cases After Treatment</t>
   </si>
   <si>
@@ -477,13 +480,112 @@
   </si>
   <si>
     <t>Objective</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimal area to cover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Chemicals used </t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Prevention Method</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Cost per unit</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Total Case reduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,8 +624,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,8 +659,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -551,11 +686,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -568,9 +849,64 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC11EF3-7CB2-41E6-B1E6-014651F3BD09}">
-  <dimension ref="A2:L54"/>
+  <dimension ref="A3:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,17 +1236,12 @@
     <col min="12" max="12" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>11000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -926,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -934,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -946,7 +1277,7 @@
       </c>
       <c r="C7">
         <f ca="1">INT(_xll.PsiUniform(E7,G7)/10)</f>
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="E7">
         <v>2000</v>
@@ -1037,19 +1368,19 @@
         <v>34</v>
       </c>
       <c r="F12">
-        <v>4762</v>
+        <v>238</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:G29" si="1">F12/E12*B12</f>
-        <v>140.05882352941177</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H29" si="2">$B$4/$B$3*G12</f>
-        <v>3.1831550802139037</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I12">
         <f>H12*(1-D12)</f>
-        <v>0.44564171122994656</v>
+        <v>1.065217391304348E-2</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J29" si="3">B12*$J$6</f>
@@ -1087,11 +1418,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>4.9318181818181824E-2</v>
+        <v>2.3586956521739137E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -1115,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E14">
         <v>59.5</v>
@@ -1205,19 +1536,19 @@
         <v>42.5</v>
       </c>
       <c r="F16">
-        <v>298</v>
+        <v>297.5</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>7.0117647058823529</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.15935828877005348</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>4.9401069518716589E-2</v>
+        <v>2.3586956521739137E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -1247,19 +1578,19 @@
         <v>251.29999999999998</v>
       </c>
       <c r="F17">
-        <v>1760</v>
+        <v>1759.1</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>7.0035813768404305</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.15917230401910071</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>4.7751691205730256E-3</v>
+        <v>2.2826086956521763E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -1289,19 +1620,19 @@
         <v>45.638666666666666</v>
       </c>
       <c r="F18">
-        <v>320</v>
+        <v>319.47066666666666</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>7.0115983522743877</v>
+        <v>7</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.1593545080062361</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>8.7644979403429857E-2</v>
+        <v>4.184782608695653E-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -1331,19 +1662,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>42521.93525734343</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>21260.967628671715</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>231.09747422469255</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>4.7727272727272766E-3</v>
+        <v>6.9329242267407825</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -1415,19 +1746,19 @@
         <v>2015</v>
       </c>
       <c r="F21">
-        <v>14105</v>
+        <v>18000</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.933002481389579</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>9.7097853058582373E-2</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>7.9545454545454607E-3</v>
+        <v>4.8548926529291226E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -1465,11 +1796,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>4.7727272727272766E-3</v>
+        <v>2.2826086956521763E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -1499,19 +1830,19 @@
         <v>59.63333333333334</v>
       </c>
       <c r="F23">
-        <v>418</v>
+        <v>417.43333333333339</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>7.0095025153717154</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.15930687534935717</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>1.5930687534935731E-3</v>
+        <v>7.6086956521739205E-4</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -1549,11 +1880,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>9.8636363636363633E-2</v>
+        <v>4.7173913043478261E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -1583,19 +1914,19 @@
         <v>18</v>
       </c>
       <c r="F25">
-        <v>126</v>
+        <v>44178.070009165218</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2454.3372227314012</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>26.677578507950013</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>9.8636363636363633E-2</v>
+        <v>16.540098674929009</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -1633,11 +1964,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>2.0681818181818183E-2</v>
+        <v>9.8913043478260874E-3</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -1675,11 +2006,11 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0.15909090909090909</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>6.8409090909090919E-2</v>
+        <v>3.271739130434783E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -1703,25 +2034,25 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>21538</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <f>F28/E28*B28</f>
-        <v>10769</v>
+        <v>7</v>
       </c>
       <c r="H28">
         <f>$B$4/$B$3*G28</f>
-        <v>244.75</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5217391304347841E-3</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -1745,25 +2076,25 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E29">
         <v>233.88</v>
       </c>
       <c r="F29">
-        <v>1638</v>
+        <v>81568.490733491373</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>7.003591585428425</v>
+        <v>348.76214611549244</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0.1591725360324642</v>
+        <v>3.7908928925597003</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5817857851194076E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
@@ -1779,19 +2110,19 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F30" s="5">
         <f>SUMPRODUCT(F11:F29,B11:B29)</f>
-        <v>45665</v>
+        <v>190000.00000000003</v>
       </c>
       <c r="G30" s="5">
         <f>SUM(G12:G29)</f>
-        <v>11000.098862065208</v>
+        <v>24150</v>
       </c>
       <c r="H30">
         <f>SUM(H11:H29)</f>
-        <v>250.00224686511839</v>
+        <v>262.50000000000006</v>
       </c>
       <c r="I30" s="5">
         <f>SUM(I11:I29)</f>
-        <v>0.94223781620797764</v>
+        <v>23.750000000000004</v>
       </c>
       <c r="K30" s="5">
         <f>SUMPRODUCT(K11:K29,B11:B29)</f>
@@ -1805,206 +2136,964 @@
       </c>
       <c r="F31">
         <f>SUMPRODUCT(B11:B15,F11:F15)</f>
-        <v>5000</v>
-      </c>
-    </row>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G35" t="s">
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="22">
+        <f>I30</f>
+        <v>23.750000000000004</v>
+      </c>
+      <c r="G36" s="22">
+        <f>F30</f>
+        <v>190000.00000000003</v>
+      </c>
+      <c r="H36" s="22">
+        <f>G30</f>
+        <v>24150</v>
+      </c>
+      <c r="I36" s="23">
+        <f>K30</f>
+        <v>-11.388888888888888</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E37" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1.25</v>
+      </c>
+      <c r="G37" s="22">
+        <v>10000</v>
+      </c>
+      <c r="H37" s="22">
+        <v>0</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E38" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="22">
+        <v>0</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0</v>
+      </c>
+      <c r="H38" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I38" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="22">
+        <f>F36+F37-F38</f>
+        <v>25.000000000000004</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" ref="G39:I39" si="4">G36+G37-G38</f>
+        <v>200000.00000000003</v>
+      </c>
+      <c r="H39" s="22">
+        <f t="shared" si="4"/>
+        <v>23000</v>
+      </c>
+      <c r="I39" s="23">
+        <f t="shared" si="4"/>
+        <v>-11.388888888888888</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="25">
+        <v>25</v>
+      </c>
+      <c r="G40" s="25">
+        <v>200000</v>
+      </c>
+      <c r="H40" s="25">
+        <v>23000</v>
+      </c>
+      <c r="I40" s="26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="12">
+        <f>F37/F$40</f>
+        <v>0.05</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" ref="F44:I45" si="5">G37/G$40</f>
+        <v>0.05</v>
+      </c>
+      <c r="H44" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="8">
+        <v>10</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="17">
+        <f>SUMPRODUCT(F44:I45,F49:I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFEE99D-B591-42E9-9E31-10EBF08811D7}">
+  <dimension ref="B1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>23000</v>
+      </c>
+      <c r="E3">
+        <v>22000</v>
+      </c>
+      <c r="F3" s="23">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39">
-        <f>F36+F37-F38</f>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39:I39" si="4">G36+G37-G38</f>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40">
-        <f>250*0.2</f>
+      <c r="D5" s="28">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="28">
+        <v>195000</v>
+      </c>
+      <c r="F5" s="29">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>18000</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <f ca="1">INT(_xll.PsiUniform(E7,F7)/10)</f>
+        <v>396</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="31">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G40">
-        <v>100000</v>
-      </c>
-      <c r="H40">
-        <v>16000</v>
-      </c>
-      <c r="I40">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44">
-        <f>F37/F$40</f>
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ref="G44:I44" si="5">G37/G$40</f>
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45">
-        <f>F38/F$40</f>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" ref="G45:I45" si="6">G38/G$40</f>
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50">
+      <c r="D11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54">
-        <f>SUMPRODUCT(F44:I45,F49:I50)</f>
-        <v>0</v>
+      <c r="H11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="F12" s="28">
+        <v>100.60000000000001</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" ref="J12:J30" si="0">I12*(1-E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="F13" s="28">
+        <v>34</v>
+      </c>
+      <c r="G13" s="28">
+        <v>238</v>
+      </c>
+      <c r="H13" s="38">
+        <v>7</v>
+      </c>
+      <c r="I13" s="39">
+        <v>1.5223785166240409</v>
+      </c>
+      <c r="J13" s="39">
+        <f>I13*(1-E13)</f>
+        <v>0.21313299232736574</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="F14" s="28">
+        <v>34</v>
+      </c>
+      <c r="G14" s="28">
+        <v>238</v>
+      </c>
+      <c r="H14" s="38">
+        <v>7</v>
+      </c>
+      <c r="I14" s="39">
+        <v>1</v>
+      </c>
+      <c r="J14" s="39">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.96</v>
+      </c>
+      <c r="F15" s="28">
+        <v>59.5</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0</v>
+      </c>
+      <c r="I15" s="39">
+        <v>0</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="F16" s="28">
+        <v>34</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="40">
+        <v>1</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="F17" s="28">
+        <v>42.5</v>
+      </c>
+      <c r="G17" s="28">
+        <v>297.5</v>
+      </c>
+      <c r="H17" s="38">
+        <v>7</v>
+      </c>
+      <c r="I17" s="39">
+        <v>1</v>
+      </c>
+      <c r="J17" s="39">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="40">
+        <v>1</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.97</v>
+      </c>
+      <c r="F18" s="28">
+        <v>251.29999999999998</v>
+      </c>
+      <c r="G18" s="28">
+        <v>1759.1</v>
+      </c>
+      <c r="H18" s="38">
+        <v>7</v>
+      </c>
+      <c r="I18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="39">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="40">
+        <v>1</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="F19" s="28">
+        <v>45.638666666666666</v>
+      </c>
+      <c r="G19" s="28">
+        <v>319.47066666666666</v>
+      </c>
+      <c r="H19" s="38">
+        <v>7</v>
+      </c>
+      <c r="I19" s="39">
+        <v>1</v>
+      </c>
+      <c r="J19" s="39">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0.97</v>
+      </c>
+      <c r="F20" s="28">
+        <v>2</v>
+      </c>
+      <c r="G20" s="28">
+        <v>42521.93525734343</v>
+      </c>
+      <c r="H20" s="38">
+        <v>21260.967628671715</v>
+      </c>
+      <c r="I20" s="39">
+        <v>1</v>
+      </c>
+      <c r="J20" s="39">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="F21" s="28">
+        <v>2015</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0</v>
+      </c>
+      <c r="H21" s="38">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39">
+        <v>1</v>
+      </c>
+      <c r="J21" s="39">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="40">
+        <v>1</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="F22" s="28">
+        <v>2015</v>
+      </c>
+      <c r="G22" s="28">
+        <v>18000</v>
+      </c>
+      <c r="H22" s="38">
+        <v>8.933002481389579</v>
+      </c>
+      <c r="I22" s="39">
+        <v>1</v>
+      </c>
+      <c r="J22" s="39">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.97</v>
+      </c>
+      <c r="F23" s="28">
+        <v>2</v>
+      </c>
+      <c r="G23" s="28">
+        <v>14</v>
+      </c>
+      <c r="H23" s="38">
+        <v>7</v>
+      </c>
+      <c r="I23" s="39">
+        <v>1</v>
+      </c>
+      <c r="J23" s="39">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0.99</v>
+      </c>
+      <c r="F24" s="28">
+        <v>59.63333333333334</v>
+      </c>
+      <c r="G24" s="28">
+        <v>417.43333333333339</v>
+      </c>
+      <c r="H24" s="38">
+        <v>7</v>
+      </c>
+      <c r="I24" s="39">
+        <v>1</v>
+      </c>
+      <c r="J24" s="39">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="40">
+        <v>1</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="F25" s="28">
+        <v>22</v>
+      </c>
+      <c r="G25" s="28">
+        <v>154</v>
+      </c>
+      <c r="H25" s="38">
+        <v>7</v>
+      </c>
+      <c r="I25" s="39">
+        <v>1</v>
+      </c>
+      <c r="J25" s="39">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="40">
+        <v>1</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="F26" s="28">
+        <v>18</v>
+      </c>
+      <c r="G26" s="28">
+        <v>44178.070009165218</v>
+      </c>
+      <c r="H26" s="38">
+        <v>2454.3372227314012</v>
+      </c>
+      <c r="I26" s="39">
+        <v>1</v>
+      </c>
+      <c r="J26" s="39">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="40">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0.87</v>
+      </c>
+      <c r="F27" s="28">
+        <v>18</v>
+      </c>
+      <c r="G27" s="28">
+        <v>126</v>
+      </c>
+      <c r="H27" s="38">
+        <v>7</v>
+      </c>
+      <c r="I27" s="39">
+        <v>1</v>
+      </c>
+      <c r="J27" s="39">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="40">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F28" s="28">
+        <v>22</v>
+      </c>
+      <c r="G28" s="28">
+        <v>154</v>
+      </c>
+      <c r="H28" s="38">
+        <v>7</v>
+      </c>
+      <c r="I28" s="39">
+        <v>1</v>
+      </c>
+      <c r="J28" s="39">
+        <f t="shared" si="0"/>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="40">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="F29" s="28">
+        <v>2</v>
+      </c>
+      <c r="G29" s="28">
+        <v>14</v>
+      </c>
+      <c r="H29" s="38">
+        <v>7</v>
+      </c>
+      <c r="I29" s="39">
+        <v>230.76630434782609</v>
+      </c>
+      <c r="J29" s="39">
+        <f t="shared" si="0"/>
+        <v>4.615326086956526</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="44">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="F30" s="46">
+        <v>233.88</v>
+      </c>
+      <c r="G30" s="46">
+        <v>81568.490733491373</v>
+      </c>
+      <c r="H30" s="38">
+        <v>348.76214611549244</v>
+      </c>
+      <c r="I30" s="47">
+        <v>5.8522672347766598</v>
+      </c>
+      <c r="J30" s="39">
+        <f t="shared" si="0"/>
+        <v>0.11704534469553329</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="48">
+        <f>SUM(G12:G30)</f>
+        <v>190000.00000000003</v>
+      </c>
+      <c r="H31" s="49">
+        <f>SUM(H12:H30)</f>
+        <v>24150</v>
+      </c>
+      <c r="I31" s="50">
+        <f>SUM(I13:I30)</f>
+        <v>251.14095009922679</v>
+      </c>
+      <c r="J31" s="51">
+        <f>SUM(J13:J30)</f>
+        <v>8.6855044239794257</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="8:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="45">
+        <f>I31-J31</f>
+        <v>242.45544567524735</v>
       </c>
     </row>
   </sheetData>
